--- a/Uloha5/uloha5.xlsx
+++ b/Uloha5/uloha5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A0570D-FD42-4B8B-ACC4-F5DDF659BEB2}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B96DF3B7-5137-4FC4-9D96-1C4C0B66EA9E}"/>
   <bookViews>
-    <workbookView xWindow="12946" yWindow="0" windowWidth="13232" windowHeight="14047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5A AUDIO" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
   <si>
     <t>n</t>
   </si>
@@ -470,12 +492,135 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pracovní oblast: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ={0 až 6} V,  Převodní konst. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 2,51,  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> = 10 Mohm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">THD = </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +689,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Skeena"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1039,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1081,63 +1234,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,6 +1281,108 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1193,24 +1391,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,6 +1407,4832 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5B'!$E$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5B'!$E$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88E9-4A71-B62C-1DE1D0F19077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="208307615"/>
+        <c:axId val="208308575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="208307615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208308575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="208308575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208307615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5B'!$Y$3:$AR$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5B'!$Y$5:$AR$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D5D-447B-9D98-4AE343BD09DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="107192543"/>
+        <c:axId val="107193503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="107192543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107193503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107193503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107192543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5B'!$AW$5:$BM$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39FC-4766-A1AE-1953EA6506E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1092803872"/>
+        <c:axId val="717316736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1092803872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717316736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="717316736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1092803872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5B'!$BR$3:$CH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5B'!$BR$5:$CH$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-12.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-12.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA30-4ACB-A14C-08ABA807F9DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="717315296"/>
+        <c:axId val="717315776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="717315296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717315776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="717315776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717315296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5B'!$CM$3:$CS$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5B'!$CM$5:$CS$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.61199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CEA-4D8C-BE86-1AC6DFF1279E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1092807712"/>
+        <c:axId val="1092805312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1092807712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1092805312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1092805312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1092807712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AEE068-5EF9-1EB8-134C-12064A14FAE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>332261</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>169292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>142769</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>84753</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9AC729-25B2-497C-7735-4D7D5A33B809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>258792</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>86264</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>159588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7207E5-C375-4526-A828-18C39779AB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>181153</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>8625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>159588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1FD77C-F317-2E7E-6F4A-C7397999F2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>280357</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>556402</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>150961</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F869FD0C-3A3F-52E5-2297-4D21954C76F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,11 +6500,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1538,20 +6549,20 @@
       <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="W3" s="15" t="s">
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="W3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="17"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="57"/>
     </row>
     <row r="4" spans="3:28" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -1602,18 +6613,18 @@
       <c r="T4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="18" t="s">
+      <c r="X4" s="63"/>
+      <c r="Y4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="18" t="s">
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="19"/>
+      <c r="AB4" s="63"/>
     </row>
     <row r="5" spans="3:28" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
@@ -1664,18 +6675,18 @@
       <c r="T5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="W5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="21" t="s">
+      <c r="X5" s="61"/>
+      <c r="Y5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="21" t="s">
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="22"/>
+      <c r="AB5" s="61"/>
     </row>
     <row r="6" spans="3:28" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
@@ -1684,79 +6695,120 @@
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="6"/>
+      <c r="E6" s="7" cm="1">
+        <f t="array" ref="E6:N6">POWER(10,(E5:N5/20))*1000</f>
+        <v>237.13737056616549</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.42169650342858195</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.23713737056616535</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5.6234132519034884E-2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.39241897584845342</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.23713737056616535</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.13335214321633237</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3.162277660168375E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <v>6.4938163157621076E-2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>3.6517412725483762E-2</v>
+      </c>
       <c r="Q6" s="13">
         <v>997</v>
       </c>
       <c r="R6" s="10">
-        <v>692.12</v>
+        <v>0.69211999999999996</v>
       </c>
       <c r="S6" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="W6" s="57">
+      <c r="T6" s="11" cm="1">
+        <f t="array" ref="T6:T11">20*LOG((S6:S11*0.001)/(R6:R11),10)</f>
+        <v>-99.901667181904344</v>
+      </c>
+      <c r="W6" s="50">
         <v>0.29199999999999998</v>
       </c>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="24">
+      <c r="X6" s="51"/>
+      <c r="Y6" s="52">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="22"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="53">
+        <f>20*LOG((W6)/(Y6*0.001),10)</f>
+        <v>97.2664572024091</v>
+      </c>
+      <c r="AB6" s="54"/>
     </row>
     <row r="7" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q7" s="14">
         <v>1994</v>
       </c>
       <c r="R7" s="10">
-        <v>691.92</v>
+        <v>0.69191999999999998</v>
       </c>
       <c r="S7" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="W7" s="15" t="s">
+      <c r="T7" s="11">
+        <v>-95.217492761043786</v>
+      </c>
+      <c r="W7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="17"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="57"/>
     </row>
     <row r="8" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">(SQRT(SUM(POWER(F6:N6,2)))/SQRT(SUM(POWER(E6:N6,2))))*100</f>
+        <v>0.28964762660004151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
       <c r="Q8" s="14">
         <v>4985</v>
       </c>
       <c r="R8" s="10">
-        <v>692.4</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="S8" s="10">
         <v>1.4E-2</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="W8" s="25" t="s">
+      <c r="T8" s="11">
+        <v>-93.884580470502357</v>
+      </c>
+      <c r="W8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="21" t="s">
+      <c r="X8" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="21" t="s">
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="22"/>
+      <c r="AA8" s="61"/>
       <c r="AB8" s="12" t="s">
         <v>24</v>
       </c>
@@ -1766,21 +6818,23 @@
         <v>9970</v>
       </c>
       <c r="R9" s="10">
-        <v>693.17</v>
+        <v>0.69316999999999995</v>
       </c>
       <c r="S9" s="10">
         <v>0.02</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="21" t="s">
+      <c r="T9" s="11">
+        <v>-90.796195255371188</v>
+      </c>
+      <c r="W9" s="59"/>
+      <c r="X9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="21" t="s">
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" s="22"/>
+      <c r="AA9" s="61"/>
       <c r="AB9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1790,50 +6844,68 @@
         <v>14</v>
       </c>
       <c r="R10" s="10">
-        <v>694.42</v>
+        <v>0.69442000000000004</v>
       </c>
       <c r="S10" s="10">
         <v>3.1E-2</v>
       </c>
-      <c r="T10" s="11"/>
+      <c r="T10" s="11">
+        <v>-87.005210532713079</v>
+      </c>
       <c r="W10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="27">
+      <c r="X10" s="42">
         <v>4.71</v>
       </c>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="30">
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="46">
         <v>3.17</v>
       </c>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="11"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="11">
+        <f>X10/Z10</f>
+        <v>1.4858044164037856</v>
+      </c>
     </row>
     <row r="11" spans="3:28" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R11" s="7">
-        <v>696.9</v>
+        <v>0.69689999999999996</v>
       </c>
       <c r="S11" s="7">
         <v>4.7E-2</v>
       </c>
-      <c r="T11" s="6"/>
+      <c r="T11" s="6">
+        <v>-83.421452131683594</v>
+      </c>
       <c r="W11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="32">
+      <c r="X11" s="44"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="48">
         <v>3.6</v>
       </c>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="6"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="6">
+        <f>X10/Z11</f>
+        <v>1.3083333333333333</v>
+      </c>
     </row>
     <row r="12" spans="3:28" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="X10:Y11"/>
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="Z11:AA11"/>
@@ -1846,14 +6918,6 @@
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1862,15 +6926,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EE3519-B4D8-42E5-A4D3-DAE0E3976C95}">
-  <dimension ref="C2:CV20"/>
+  <dimension ref="C2:DB19"/>
   <sheetViews>
-    <sheetView topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="CG6" sqref="CG6"/>
+    <sheetView tabSelected="1" topLeftCell="CG9" workbookViewId="0">
+      <selection activeCell="CM5" activeCellId="1" sqref="CM3:CS3 CM5:CS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:100" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:106" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>38</v>
       </c>
@@ -1880,1289 +6948,1602 @@
       <c r="AU2" t="s">
         <v>41</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="BP2" t="s">
+        <v>40</v>
+      </c>
+      <c r="CK2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="3:100" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="34" t="s">
+    <row r="3" spans="3:106" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="17">
         <v>0</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="17">
         <v>0.5</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="17">
         <v>1</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="17">
         <v>1.5</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="17">
         <v>2</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="17">
         <v>2.5</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="17">
         <v>3</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="17">
         <v>3.5</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="17">
         <v>4</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="17">
         <v>4.5</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="17">
         <v>5</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="17">
         <v>5.5</v>
       </c>
-      <c r="Q3" s="36">
+      <c r="Q3" s="17">
         <v>6</v>
       </c>
-      <c r="R3" s="36">
+      <c r="R3" s="17">
         <v>6.5</v>
       </c>
-      <c r="S3" s="36">
+      <c r="S3" s="17">
         <v>7</v>
       </c>
-      <c r="T3" s="36">
+      <c r="T3" s="17">
         <v>7.5</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="X3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="36">
+      <c r="Y3" s="17">
         <v>0</v>
       </c>
-      <c r="Z3" s="36">
+      <c r="Z3" s="17">
         <v>1</v>
       </c>
-      <c r="AA3" s="36">
+      <c r="AA3" s="17">
         <v>2</v>
       </c>
-      <c r="AB3" s="36">
+      <c r="AB3" s="17">
         <v>3</v>
       </c>
-      <c r="AC3" s="36">
+      <c r="AC3" s="17">
         <v>4</v>
       </c>
-      <c r="AD3" s="36">
+      <c r="AD3" s="17">
         <v>5</v>
       </c>
-      <c r="AE3" s="36">
+      <c r="AE3" s="17">
         <v>6</v>
       </c>
-      <c r="AF3" s="36">
+      <c r="AF3" s="17">
         <v>7</v>
       </c>
-      <c r="AG3" s="36">
+      <c r="AG3" s="17">
         <v>8</v>
       </c>
-      <c r="AH3" s="36">
+      <c r="AH3" s="17">
         <v>9</v>
       </c>
-      <c r="AI3" s="36">
+      <c r="AI3" s="17">
         <v>10</v>
       </c>
-      <c r="AJ3" s="36">
+      <c r="AJ3" s="17">
         <v>11</v>
       </c>
-      <c r="AK3" s="36">
+      <c r="AK3" s="17">
         <v>12</v>
       </c>
-      <c r="AL3" s="36">
+      <c r="AL3" s="17">
         <v>13</v>
       </c>
-      <c r="AM3" s="36">
+      <c r="AM3" s="17">
         <v>14</v>
       </c>
-      <c r="AN3" s="36">
+      <c r="AN3" s="17">
         <v>14.2</v>
       </c>
-      <c r="AO3" s="53">
+      <c r="AO3" s="31">
         <v>14.4</v>
       </c>
-      <c r="AP3" s="36">
+      <c r="AP3" s="17">
         <v>14.6</v>
       </c>
-      <c r="AQ3" s="53">
+      <c r="AQ3" s="31">
         <v>14.8</v>
       </c>
-      <c r="AR3" s="36">
+      <c r="AR3" s="17">
         <v>15</v>
       </c>
-      <c r="AU3" s="34" t="s">
+      <c r="AU3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="AY3" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="AZ3" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="BA3" s="22">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="22">
+        <v>1.25</v>
+      </c>
+      <c r="BC3" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="BD3" s="22">
+        <v>1.75</v>
+      </c>
+      <c r="BE3" s="22">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="BG3" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="BH3" s="22">
+        <v>2.75</v>
+      </c>
+      <c r="BI3" s="22">
+        <v>3</v>
+      </c>
+      <c r="BJ3" s="22">
+        <v>3.25</v>
+      </c>
+      <c r="BK3" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="BL3" s="22">
+        <v>3.75</v>
+      </c>
+      <c r="BM3" s="22">
+        <v>4</v>
+      </c>
+      <c r="BP3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR3" s="39">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="BT3" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="BU3" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="BV3" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="BW3" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="BX3" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="BY3" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="BZ3" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="CA3" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="CB3" s="22">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CD3" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="CE3" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="CF3" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="CG3" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="CH3" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="CK3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AV3" s="35" t="s">
+      <c r="CL3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="CM3" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="CN3" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="CO3" s="17">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="17">
+        <v>3</v>
+      </c>
+      <c r="CQ3" s="17">
+        <v>6</v>
+      </c>
+      <c r="CR3" s="17">
+        <v>10</v>
+      </c>
+      <c r="CS3" s="17">
+        <v>15</v>
+      </c>
+      <c r="CT3" s="17"/>
+      <c r="CU3" s="17"/>
+      <c r="CV3" s="17"/>
+      <c r="CW3" s="18"/>
+      <c r="CX3" s="18"/>
+      <c r="CY3" s="18"/>
+      <c r="CZ3" s="18"/>
+      <c r="DA3" s="18"/>
+      <c r="DB3" s="19"/>
+    </row>
+    <row r="4" spans="3:106" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="T4" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="22">
+        <v>22.5</v>
+      </c>
+      <c r="AC4" s="22">
+        <v>30.1</v>
+      </c>
+      <c r="AD4" s="22">
+        <v>37.5</v>
+      </c>
+      <c r="AE4" s="22">
+        <v>45</v>
+      </c>
+      <c r="AF4" s="22">
+        <v>52.5</v>
+      </c>
+      <c r="AG4" s="22">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="22">
+        <v>67.5</v>
+      </c>
+      <c r="AI4" s="23">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="23">
+        <v>82.5</v>
+      </c>
+      <c r="AK4" s="23">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="23">
+        <v>97.5</v>
+      </c>
+      <c r="AM4" s="23">
+        <v>105</v>
+      </c>
+      <c r="AN4" s="24">
+        <v>106.5</v>
+      </c>
+      <c r="AO4" s="32">
+        <v>108</v>
+      </c>
+      <c r="AP4" s="32">
+        <v>109.4</v>
+      </c>
+      <c r="AQ4" s="32">
+        <v>111</v>
+      </c>
+      <c r="AR4" s="32">
+        <v>112.5</v>
+      </c>
+      <c r="AU4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AW3" s="36">
+      <c r="AW4" s="17">
         <v>0</v>
       </c>
-      <c r="AX3" s="36">
+      <c r="AX4" s="17">
         <v>5</v>
       </c>
-      <c r="AY3" s="36">
+      <c r="AY4" s="17">
         <v>10.5</v>
       </c>
-      <c r="AZ3" s="36">
+      <c r="AZ4" s="17">
         <v>16</v>
       </c>
-      <c r="BA3" s="36">
+      <c r="BA4" s="17">
         <v>21.6</v>
       </c>
-      <c r="BB3" s="36">
+      <c r="BB4" s="17">
         <v>26.8</v>
       </c>
-      <c r="BC3" s="36">
+      <c r="BC4" s="17">
         <v>32.5</v>
       </c>
-      <c r="BD3" s="36">
+      <c r="BD4" s="17">
         <v>37.9</v>
       </c>
-      <c r="BE3" s="36">
+      <c r="BE4" s="17">
         <v>43.4</v>
       </c>
-      <c r="BF3" s="36">
+      <c r="BF4" s="17">
         <v>48.7</v>
       </c>
-      <c r="BG3" s="36">
+      <c r="BG4" s="17">
         <v>54.6</v>
       </c>
-      <c r="BH3" s="36">
+      <c r="BH4" s="17">
         <v>59.9</v>
       </c>
-      <c r="BI3" s="36">
+      <c r="BI4" s="17">
         <v>65.8</v>
       </c>
-      <c r="BJ3" s="36">
+      <c r="BJ4" s="17">
         <v>431</v>
       </c>
-      <c r="BK3" s="36">
+      <c r="BK4" s="17">
         <v>609</v>
       </c>
-      <c r="BL3" s="36">
+      <c r="BL4" s="17">
         <v>651</v>
       </c>
-      <c r="BM3" s="53">
+      <c r="BM4" s="31">
         <v>676</v>
       </c>
-      <c r="CE3" s="34" t="s">
+      <c r="BP4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CF3" s="35" t="s">
+      <c r="BQ4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR4" s="39">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="17">
+        <v>18.8</v>
+      </c>
+      <c r="BT4" s="17">
+        <v>37.4</v>
+      </c>
+      <c r="BU4" s="17">
+        <v>54.9</v>
+      </c>
+      <c r="BV4" s="17">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="BW4" s="17">
+        <v>91.6</v>
+      </c>
+      <c r="BX4" s="17">
+        <v>108.8</v>
+      </c>
+      <c r="BY4" s="17">
+        <v>127</v>
+      </c>
+      <c r="BZ4" s="17">
+        <v>144.6</v>
+      </c>
+      <c r="CA4" s="17">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="CB4" s="17">
+        <v>181.9</v>
+      </c>
+      <c r="CC4" s="18">
+        <v>199.1</v>
+      </c>
+      <c r="CD4" s="18">
+        <v>434</v>
+      </c>
+      <c r="CE4" s="18">
+        <v>675</v>
+      </c>
+      <c r="CF4" s="18">
+        <v>719</v>
+      </c>
+      <c r="CG4" s="18">
+        <v>751</v>
+      </c>
+      <c r="CH4" s="19">
+        <v>776</v>
+      </c>
+      <c r="CK4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="CM4" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="CN4" s="22">
+        <v>2</v>
+      </c>
+      <c r="CO4" s="22">
+        <v>6.9</v>
+      </c>
+      <c r="CP4" s="22">
+        <v>20.7</v>
+      </c>
+      <c r="CQ4" s="22">
+        <v>41.5</v>
+      </c>
+      <c r="CR4" s="22">
+        <v>69</v>
+      </c>
+      <c r="CS4" s="22">
+        <v>103.7</v>
+      </c>
+      <c r="CT4" s="22"/>
+      <c r="CU4" s="22"/>
+      <c r="CV4" s="22"/>
+      <c r="CW4" s="23"/>
+      <c r="CX4" s="23"/>
+      <c r="CY4" s="23"/>
+      <c r="CZ4" s="23"/>
+      <c r="DA4" s="23"/>
+      <c r="DB4" s="24"/>
+    </row>
+    <row r="5" spans="3:106" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="CG3" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="CH3" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="CI3" s="36">
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="G5" s="27">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="H5" s="27">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="I5" s="27">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J5" s="27">
+        <v>6.24</v>
+      </c>
+      <c r="K5" s="27">
+        <v>7.48</v>
+      </c>
+      <c r="L5" s="27">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M5" s="27">
+        <v>10.01</v>
+      </c>
+      <c r="N5" s="27">
+        <v>11.24</v>
+      </c>
+      <c r="O5" s="28">
+        <v>12.52</v>
+      </c>
+      <c r="P5" s="28">
+        <v>13.75</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>15</v>
+      </c>
+      <c r="R5" s="28">
+        <v>15.07</v>
+      </c>
+      <c r="S5" s="28">
+        <v>15.07</v>
+      </c>
+      <c r="T5" s="29">
+        <v>15.07</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="27">
+        <v>0.09</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>0.19</v>
+      </c>
+      <c r="AB5" s="27">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>0.49</v>
+      </c>
+      <c r="AE5" s="27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>0.68</v>
+      </c>
+      <c r="AG5" s="27">
+        <v>0.78</v>
+      </c>
+      <c r="AH5" s="27">
+        <v>0.88</v>
+      </c>
+      <c r="AI5" s="28">
+        <v>0.98</v>
+      </c>
+      <c r="AJ5" s="28">
+        <v>1.07</v>
+      </c>
+      <c r="AK5" s="28">
+        <v>1.17</v>
+      </c>
+      <c r="AL5" s="28">
+        <v>1.27</v>
+      </c>
+      <c r="AM5" s="28">
+        <v>1.37</v>
+      </c>
+      <c r="AN5" s="29">
+        <v>1.39</v>
+      </c>
+      <c r="AO5" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="AP5" s="32">
+        <v>1.43</v>
+      </c>
+      <c r="AQ5" s="32">
+        <v>1.44</v>
+      </c>
+      <c r="AR5" s="32">
+        <v>1.47</v>
+      </c>
+      <c r="AU5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="27">
+        <v>-0.5</v>
+      </c>
+      <c r="AY5" s="27">
+        <v>-0.99</v>
+      </c>
+      <c r="AZ5" s="27">
+        <v>-1.49</v>
+      </c>
+      <c r="BA5" s="27">
+        <v>-1.99</v>
+      </c>
+      <c r="BB5" s="27">
+        <v>-2.5</v>
+      </c>
+      <c r="BC5" s="27">
+        <v>-2.99</v>
+      </c>
+      <c r="BD5" s="27">
+        <v>-3.49</v>
+      </c>
+      <c r="BE5" s="27">
+        <v>-3.99</v>
+      </c>
+      <c r="BF5" s="27">
+        <v>-4.49</v>
+      </c>
+      <c r="BG5" s="28">
+        <v>-5</v>
+      </c>
+      <c r="BH5" s="28">
+        <v>-5.5</v>
+      </c>
+      <c r="BI5" s="28">
+        <v>-6</v>
+      </c>
+      <c r="BJ5" s="28">
+        <v>-6.39</v>
+      </c>
+      <c r="BK5" s="28">
+        <v>-6.43</v>
+      </c>
+      <c r="BL5" s="29">
+        <v>-6.44</v>
+      </c>
+      <c r="BM5" s="32">
+        <v>-6.44</v>
+      </c>
+      <c r="BP5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="BQ5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR5" s="39">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="27">
+        <v>-1.149</v>
+      </c>
+      <c r="BT5" s="27">
+        <v>-2.2949999999999999</v>
+      </c>
+      <c r="BU5" s="27">
+        <v>-3.36</v>
+      </c>
+      <c r="BV5" s="27">
+        <v>-4.42</v>
+      </c>
+      <c r="BW5" s="27">
+        <v>-5.58</v>
+      </c>
+      <c r="BX5" s="27">
+        <v>-6.62</v>
+      </c>
+      <c r="BY5" s="27">
+        <v>-7.73</v>
+      </c>
+      <c r="BZ5" s="27">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="CA5" s="27">
+        <v>-9.8800000000000008</v>
+      </c>
+      <c r="CB5" s="27">
+        <v>-11.08</v>
+      </c>
+      <c r="CC5" s="28">
+        <v>-12.12</v>
+      </c>
+      <c r="CD5" s="28">
+        <v>-12.98</v>
+      </c>
+      <c r="CE5" s="28">
+        <v>-12.99</v>
+      </c>
+      <c r="CF5" s="28">
+        <v>-12.99</v>
+      </c>
+      <c r="CG5" s="28">
+        <v>-12.99</v>
+      </c>
+      <c r="CH5" s="29">
+        <v>-12.99</v>
+      </c>
+      <c r="CK5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="CL5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="CM5" s="27">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="CN5" s="27">
+        <v>-0.50900000000000001</v>
+      </c>
+      <c r="CO5" s="27">
+        <v>-0.54100000000000004</v>
+      </c>
+      <c r="CP5" s="27">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="CQ5" s="27">
+        <v>-0.58799999999999997</v>
+      </c>
+      <c r="CR5" s="27">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="CS5" s="27">
+        <v>-0.61199999999999999</v>
+      </c>
+      <c r="CT5" s="27"/>
+      <c r="CU5" s="27"/>
+      <c r="CV5" s="27"/>
+      <c r="CW5" s="28"/>
+      <c r="CX5" s="28"/>
+      <c r="CY5" s="28"/>
+      <c r="CZ5" s="28"/>
+      <c r="DA5" s="28"/>
+      <c r="DB5" s="29"/>
+    </row>
+    <row r="6" spans="3:106" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CJ3" s="36">
-        <v>3</v>
-      </c>
-      <c r="CK3" s="36">
-        <v>6</v>
-      </c>
-      <c r="CL3" s="36">
+      <c r="F6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="27" cm="1">
+        <f t="array" ref="G6:T6">(G3:T3/(G4:T4*0.000001))*0.000001</f>
         <v>10</v>
       </c>
-      <c r="CM3" s="36">
+      <c r="H6" s="27">
         <v>15</v>
       </c>
-      <c r="CN3" s="36"/>
-      <c r="CO3" s="36"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="37"/>
-      <c r="CR3" s="37"/>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="37"/>
-      <c r="CV3" s="38"/>
+      <c r="I6" s="27">
+        <v>10</v>
+      </c>
+      <c r="J6" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="K6" s="27">
+        <v>10</v>
+      </c>
+      <c r="L6" s="27">
+        <v>11.666666666666668</v>
+      </c>
+      <c r="M6" s="27">
+        <v>10</v>
+      </c>
+      <c r="N6" s="27">
+        <v>9</v>
+      </c>
+      <c r="O6" s="28">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="P6" s="28">
+        <v>9.1666666666666679</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="R6" s="28">
+        <v>8.125</v>
+      </c>
+      <c r="S6" s="28">
+        <v>8.75</v>
+      </c>
+      <c r="T6" s="29">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="27" cm="1">
+        <f t="array" ref="Z6:AR6">(Z3:AR3/(Z4:AR4*0.000001))*0.001</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AB6" s="27">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AC6" s="27">
+        <v>132.89036544850498</v>
+      </c>
+      <c r="AD6" s="27">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AE6" s="27">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AF6" s="27">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AG6" s="27">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AH6" s="27">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AI6" s="28">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AJ6" s="28">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AK6" s="28">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AL6" s="28">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AM6" s="28">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AN6" s="29">
+        <v>133.33333333333331</v>
+      </c>
+      <c r="AO6">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AP6">
+        <v>133.45521023765994</v>
+      </c>
+      <c r="AQ6">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AR6">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="AU6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV6" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="27" cm="1">
+        <f t="array" ref="AX6:BM6">((AX4:BM4*0.001)/(AX3:BM3*0.001))</f>
+        <v>20</v>
+      </c>
+      <c r="AY6" s="27">
+        <v>21</v>
+      </c>
+      <c r="AZ6" s="27">
+        <v>21.333333333333332</v>
+      </c>
+      <c r="BA6" s="27">
+        <v>21.6</v>
+      </c>
+      <c r="BB6" s="27">
+        <v>21.44</v>
+      </c>
+      <c r="BC6" s="27">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="BD6" s="27">
+        <v>21.657142857142855</v>
+      </c>
+      <c r="BE6" s="27">
+        <v>21.7</v>
+      </c>
+      <c r="BF6" s="27">
+        <v>21.644444444444446</v>
+      </c>
+      <c r="BG6" s="28">
+        <v>21.84</v>
+      </c>
+      <c r="BH6" s="28">
+        <v>21.781818181818185</v>
+      </c>
+      <c r="BI6" s="28">
+        <v>21.933333333333334</v>
+      </c>
+      <c r="BJ6" s="28">
+        <v>132.61538461538461</v>
+      </c>
+      <c r="BK6" s="28">
+        <v>174</v>
+      </c>
+      <c r="BL6" s="29">
+        <v>173.60000000000002</v>
+      </c>
+      <c r="BM6">
+        <v>169</v>
+      </c>
+      <c r="BP6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ6" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="BR6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="27" cm="1">
+        <f t="array" ref="BS6:CH6">((BS4:CH4*0.001)/(BS3:CH3*0.001))</f>
+        <v>188</v>
+      </c>
+      <c r="BT6" s="27">
+        <v>187</v>
+      </c>
+      <c r="BU6" s="27">
+        <v>183</v>
+      </c>
+      <c r="BV6" s="27">
+        <v>181.5</v>
+      </c>
+      <c r="BW6" s="27">
+        <v>183.2</v>
+      </c>
+      <c r="BX6" s="27">
+        <v>181.33333333333334</v>
+      </c>
+      <c r="BY6" s="27">
+        <v>181.42857142857144</v>
+      </c>
+      <c r="BZ6" s="27">
+        <v>180.75</v>
+      </c>
+      <c r="CA6" s="27">
+        <v>180.2222222222222</v>
+      </c>
+      <c r="CB6" s="27">
+        <v>181.9</v>
+      </c>
+      <c r="CC6" s="28">
+        <v>181</v>
+      </c>
+      <c r="CD6" s="28">
+        <v>361.66666666666669</v>
+      </c>
+      <c r="CE6" s="28">
+        <v>540</v>
+      </c>
+      <c r="CF6" s="28">
+        <v>553.07692307692298</v>
+      </c>
+      <c r="CG6" s="28">
+        <v>556.2962962962963</v>
+      </c>
+      <c r="CH6" s="29">
+        <v>554.28571428571433</v>
+      </c>
+      <c r="CK6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="CM6" s="27" cm="1">
+        <f t="array" ref="CM6:CS6">((CM3:CS3)/(CM4:CS4*0.000001))*0.001</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="CN6" s="27">
+        <v>150</v>
+      </c>
+      <c r="CO6" s="27">
+        <v>144.92753623188406</v>
+      </c>
+      <c r="CP6" s="27">
+        <v>144.92753623188406</v>
+      </c>
+      <c r="CQ6" s="27">
+        <v>144.57831325301206</v>
+      </c>
+      <c r="CR6" s="27">
+        <v>144.92753623188406</v>
+      </c>
+      <c r="CS6" s="27">
+        <v>144.6480231436837</v>
+      </c>
+      <c r="CT6" s="27"/>
+      <c r="CU6" s="27"/>
+      <c r="CV6" s="27"/>
+      <c r="CW6" s="28"/>
+      <c r="CX6" s="28"/>
+      <c r="CY6" s="28"/>
+      <c r="CZ6" s="28"/>
+      <c r="DA6" s="28"/>
+      <c r="DB6" s="29"/>
     </row>
-    <row r="4" spans="3:100" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="41">
-        <v>0</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0</v>
-      </c>
-      <c r="G4" s="41">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="41">
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="K4" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="L4" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="M4" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="N4" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="P4" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="Q4" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="R4" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="S4" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="T4" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="W4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="41">
-        <v>7.5</v>
-      </c>
-      <c r="AA4" s="41">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="41">
-        <v>22.5</v>
-      </c>
-      <c r="AC4" s="41">
-        <v>30.1</v>
-      </c>
-      <c r="AD4" s="41">
-        <v>37.5</v>
-      </c>
-      <c r="AE4" s="41">
+    <row r="7" spans="3:106" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27" cm="1">
+        <f t="array" ref="F7:T7">F5:T5/F3:T3</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G7" s="27">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="H7" s="27">
+        <v>2.5113333333333334</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J7" s="27">
+        <v>2.496</v>
+      </c>
+      <c r="K7" s="27">
+        <v>2.4933333333333336</v>
+      </c>
+      <c r="L7" s="27">
+        <v>2.4857142857142853</v>
+      </c>
+      <c r="M7" s="27">
+        <v>2.5024999999999999</v>
+      </c>
+      <c r="N7" s="27">
+        <v>2.4977777777777779</v>
+      </c>
+      <c r="O7" s="28">
+        <v>2.504</v>
+      </c>
+      <c r="P7" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="R7" s="28">
+        <v>2.3184615384615386</v>
+      </c>
+      <c r="S7" s="28">
+        <v>2.152857142857143</v>
+      </c>
+      <c r="T7" s="29">
+        <v>2.0093333333333332</v>
+      </c>
+      <c r="W7" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="27" cm="1">
+        <f t="array" ref="Z7:AR7">(Z5:AR5*0.001)/(Z3:AR3)</f>
+        <v>8.9999999999999992E-5</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>9.6666666666666667E-5</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>9.7500000000000012E-5</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>9.7999999999999997E-5</v>
+      </c>
+      <c r="AE7" s="27">
+        <v>9.6666666666666667E-5</v>
+      </c>
+      <c r="AF7" s="27">
+        <v>9.7142857142857152E-5</v>
+      </c>
+      <c r="AG7" s="27">
+        <v>9.7500000000000012E-5</v>
+      </c>
+      <c r="AH7" s="27">
+        <v>9.777777777777778E-5</v>
+      </c>
+      <c r="AI7" s="28">
+        <v>9.7999999999999997E-5</v>
+      </c>
+      <c r="AJ7" s="28">
+        <v>9.727272727272727E-5</v>
+      </c>
+      <c r="AK7" s="28">
+        <v>9.7499999999999998E-5</v>
+      </c>
+      <c r="AL7" s="28">
+        <v>9.7692307692307694E-5</v>
+      </c>
+      <c r="AM7" s="28">
+        <v>9.7857142857142872E-5</v>
+      </c>
+      <c r="AN7" s="29">
+        <v>9.7887323943661968E-5</v>
+      </c>
+      <c r="AO7">
+        <v>9.7222222222222217E-5</v>
+      </c>
+      <c r="AP7">
+        <v>9.7945205479452055E-5</v>
+      </c>
+      <c r="AQ7">
+        <v>9.7297297297297281E-5</v>
+      </c>
+      <c r="AR7">
+        <v>9.7999999999999997E-5</v>
+      </c>
+      <c r="AU7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="27" cm="1">
+        <f t="array" ref="AX7:BM7">AX5:BM5/AX3:BM3</f>
+        <v>-2</v>
+      </c>
+      <c r="AY7" s="27">
+        <v>-1.98</v>
+      </c>
+      <c r="AZ7" s="27">
+        <v>-1.9866666666666666</v>
+      </c>
+      <c r="BA7" s="27">
+        <v>-1.99</v>
+      </c>
+      <c r="BB7" s="27">
+        <v>-2</v>
+      </c>
+      <c r="BC7" s="27">
+        <v>-1.9933333333333334</v>
+      </c>
+      <c r="BD7" s="27">
+        <v>-1.9942857142857144</v>
+      </c>
+      <c r="BE7" s="27">
+        <v>-1.9950000000000001</v>
+      </c>
+      <c r="BF7" s="27">
+        <v>-1.9955555555555557</v>
+      </c>
+      <c r="BG7" s="28">
+        <v>-2</v>
+      </c>
+      <c r="BH7" s="28">
+        <v>-2</v>
+      </c>
+      <c r="BI7" s="28">
+        <v>-2</v>
+      </c>
+      <c r="BJ7" s="28">
+        <v>-1.9661538461538461</v>
+      </c>
+      <c r="BK7" s="28">
+        <v>-1.837142857142857</v>
+      </c>
+      <c r="BL7" s="29">
+        <v>-1.7173333333333334</v>
+      </c>
+      <c r="BM7">
+        <v>-1.61</v>
+      </c>
+      <c r="BP7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AF4" s="41">
-        <v>52.5</v>
-      </c>
-      <c r="AG4" s="41">
-        <v>60</v>
-      </c>
-      <c r="AH4" s="41">
-        <v>67.5</v>
-      </c>
-      <c r="AI4" s="42">
-        <v>75</v>
-      </c>
-      <c r="AJ4" s="42">
-        <v>82.5</v>
-      </c>
-      <c r="AK4" s="42">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="42">
-        <v>97.5</v>
-      </c>
-      <c r="AM4" s="42">
-        <v>105</v>
-      </c>
-      <c r="AN4" s="43">
-        <v>106.5</v>
-      </c>
-      <c r="AO4" s="54">
-        <v>108</v>
-      </c>
-      <c r="AP4" s="54">
-        <v>109.4</v>
-      </c>
-      <c r="AQ4" s="54">
-        <v>111</v>
-      </c>
-      <c r="AR4" s="54">
-        <v>112.5</v>
-      </c>
-      <c r="AU4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV4" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW4" s="41">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="AY4" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="AZ4" s="41">
-        <v>0.75</v>
-      </c>
-      <c r="BA4" s="41">
+      <c r="BR7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BB4" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="BC4" s="41">
-        <v>1.5</v>
-      </c>
-      <c r="BD4" s="41">
-        <v>1.75</v>
-      </c>
-      <c r="BE4" s="41">
-        <v>2</v>
-      </c>
-      <c r="BF4" s="41">
-        <v>2.25</v>
-      </c>
-      <c r="BG4" s="41">
-        <v>2.5</v>
-      </c>
-      <c r="BH4" s="41">
-        <v>2.75</v>
-      </c>
-      <c r="BI4" s="41">
-        <v>3</v>
-      </c>
-      <c r="BJ4" s="41">
-        <v>3.25</v>
-      </c>
-      <c r="BK4" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="BL4" s="41">
-        <v>3.75</v>
-      </c>
-      <c r="BM4" s="41">
-        <v>4</v>
-      </c>
-      <c r="CE4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="CF4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="CG4" s="41">
-        <v>0.6</v>
-      </c>
-      <c r="CH4" s="41">
-        <v>2</v>
-      </c>
-      <c r="CI4" s="41">
-        <v>6.9</v>
-      </c>
-      <c r="CJ4" s="41">
-        <v>20.7</v>
-      </c>
-      <c r="CK4" s="41">
-        <v>41.5</v>
-      </c>
-      <c r="CL4" s="41">
-        <v>69</v>
-      </c>
-      <c r="CM4" s="41">
-        <v>103.7</v>
-      </c>
-      <c r="CN4" s="41"/>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="42"/>
-      <c r="CR4" s="42"/>
-      <c r="CS4" s="42"/>
-      <c r="CT4" s="42"/>
-      <c r="CU4" s="42"/>
-      <c r="CV4" s="43"/>
+      <c r="BS7" s="27" cm="1">
+        <f t="array" ref="BS7:CH7">(BS5:CH5)/(BS3:CH3*0.001)*0.001</f>
+        <v>-11.49</v>
+      </c>
+      <c r="BT7" s="27">
+        <v>-11.475</v>
+      </c>
+      <c r="BU7" s="27">
+        <v>-11.200000000000001</v>
+      </c>
+      <c r="BV7" s="27">
+        <v>-11.05</v>
+      </c>
+      <c r="BW7" s="27">
+        <v>-11.16</v>
+      </c>
+      <c r="BX7" s="27">
+        <v>-11.033333333333335</v>
+      </c>
+      <c r="BY7" s="27">
+        <v>-11.042857142857143</v>
+      </c>
+      <c r="BZ7" s="27">
+        <v>-11</v>
+      </c>
+      <c r="CA7" s="27">
+        <v>-10.977777777777778</v>
+      </c>
+      <c r="CB7" s="28">
+        <v>-11.08</v>
+      </c>
+      <c r="CC7" s="28">
+        <v>-11.018181818181816</v>
+      </c>
+      <c r="CD7" s="28">
+        <v>-10.816666666666668</v>
+      </c>
+      <c r="CE7" s="28">
+        <v>-10.391999999999999</v>
+      </c>
+      <c r="CF7" s="28">
+        <v>-9.9923076923076923</v>
+      </c>
+      <c r="CG7" s="29">
+        <v>-9.6222222222222236</v>
+      </c>
+      <c r="CH7">
+        <v>-9.2785714285714302</v>
+      </c>
+      <c r="CK7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="CL7" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM7" s="27" cm="1">
+        <f t="array" ref="CM7:CS7">CM5:CS5/CM3:CS3</f>
+        <v>-4.8099999999999996</v>
+      </c>
+      <c r="CN7" s="27">
+        <v>-1.6966666666666668</v>
+      </c>
+      <c r="CO7" s="27">
+        <v>-0.54100000000000004</v>
+      </c>
+      <c r="CP7" s="27">
+        <v>-0.18999999999999997</v>
+      </c>
+      <c r="CQ7" s="27">
+        <v>-9.799999999999999E-2</v>
+      </c>
+      <c r="CR7" s="27">
+        <v>-6.0199999999999997E-2</v>
+      </c>
+      <c r="CS7" s="27">
+        <v>-4.0799999999999996E-2</v>
+      </c>
+      <c r="CT7" s="27"/>
+      <c r="CU7" s="27"/>
+      <c r="CV7" s="27"/>
+      <c r="CW7" s="28"/>
+      <c r="CX7" s="28"/>
+      <c r="CY7" s="28"/>
+      <c r="CZ7" s="28"/>
+      <c r="DA7" s="28"/>
+      <c r="DB7" s="29"/>
     </row>
-    <row r="5" spans="3:100" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="46">
-        <v>0</v>
-      </c>
-      <c r="F5" s="46">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="G5" s="46">
-        <v>2.4990000000000001</v>
-      </c>
-      <c r="H5" s="46">
-        <v>3.7669999999999999</v>
-      </c>
-      <c r="I5" s="46">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="J5" s="46">
-        <v>6.24</v>
-      </c>
-      <c r="K5" s="46">
-        <v>7.48</v>
-      </c>
-      <c r="L5" s="46">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M5" s="46">
-        <v>10.01</v>
-      </c>
-      <c r="N5" s="46">
-        <v>11.24</v>
-      </c>
-      <c r="O5" s="47">
-        <v>12.52</v>
-      </c>
-      <c r="P5" s="47">
-        <v>13.75</v>
-      </c>
-      <c r="Q5" s="47">
-        <v>15</v>
-      </c>
-      <c r="R5" s="47">
-        <v>15.07</v>
-      </c>
-      <c r="S5" s="47">
-        <v>15.07</v>
-      </c>
-      <c r="T5" s="48">
-        <v>15.07</v>
-      </c>
-      <c r="W5" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="X5" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="46">
-        <v>0.09</v>
-      </c>
-      <c r="AA5" s="46">
-        <v>0.19</v>
-      </c>
-      <c r="AB5" s="46">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AC5" s="46">
-        <v>0.39</v>
-      </c>
-      <c r="AD5" s="46">
-        <v>0.49</v>
-      </c>
-      <c r="AE5" s="46">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AF5" s="46">
-        <v>0.68</v>
-      </c>
-      <c r="AG5" s="46">
-        <v>0.78</v>
-      </c>
-      <c r="AH5" s="46">
-        <v>0.88</v>
-      </c>
-      <c r="AI5" s="47">
-        <v>0.98</v>
-      </c>
-      <c r="AJ5" s="47">
-        <v>1.07</v>
-      </c>
-      <c r="AK5" s="47">
-        <v>1.17</v>
-      </c>
-      <c r="AL5" s="47">
-        <v>1.27</v>
-      </c>
-      <c r="AM5" s="47">
-        <v>1.37</v>
-      </c>
-      <c r="AN5" s="48">
-        <v>1.39</v>
-      </c>
-      <c r="AO5" s="54">
-        <v>1.4</v>
-      </c>
-      <c r="AP5" s="54">
-        <v>1.43</v>
-      </c>
-      <c r="AQ5" s="54">
-        <v>1.44</v>
-      </c>
-      <c r="AR5" s="54">
-        <v>1.47</v>
-      </c>
-      <c r="AU5" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV5" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="46">
-        <v>-0.5</v>
-      </c>
-      <c r="AY5" s="46">
-        <v>-0.99</v>
-      </c>
-      <c r="AZ5" s="46">
-        <v>-1.49</v>
-      </c>
-      <c r="BA5" s="46">
-        <v>-1.99</v>
-      </c>
-      <c r="BB5" s="46">
-        <v>-2.5</v>
-      </c>
-      <c r="BC5" s="46">
-        <v>-2.99</v>
-      </c>
-      <c r="BD5" s="46">
-        <v>-3.49</v>
-      </c>
-      <c r="BE5" s="46">
-        <v>-3.99</v>
-      </c>
-      <c r="BF5" s="46">
-        <v>-4.49</v>
-      </c>
-      <c r="BG5" s="47">
-        <v>-5</v>
-      </c>
-      <c r="BH5" s="47">
-        <v>-5.5</v>
-      </c>
-      <c r="BI5" s="47">
-        <v>-6</v>
-      </c>
-      <c r="BJ5" s="47">
-        <v>-6.39</v>
-      </c>
-      <c r="BK5" s="47">
-        <v>-6.43</v>
-      </c>
-      <c r="BL5" s="48">
-        <v>-644</v>
-      </c>
-      <c r="BM5" s="54">
-        <v>-6.44</v>
-      </c>
-      <c r="CE5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="CF5" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="CG5" s="46">
-        <v>-0.48099999999999998</v>
-      </c>
-      <c r="CH5" s="46">
-        <v>-0.50900000000000001</v>
-      </c>
-      <c r="CI5" s="46">
-        <v>-0.54100000000000004</v>
-      </c>
-      <c r="CJ5" s="46">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="CK5" s="46">
-        <v>-0.58799999999999997</v>
-      </c>
-      <c r="CL5" s="46">
-        <v>-0.60199999999999998</v>
-      </c>
-      <c r="CM5" s="46">
-        <v>-0.61199999999999999</v>
-      </c>
-      <c r="CN5" s="46"/>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="46"/>
-      <c r="CQ5" s="47"/>
-      <c r="CR5" s="47"/>
-      <c r="CS5" s="47"/>
-      <c r="CT5" s="47"/>
-      <c r="CU5" s="47"/>
-      <c r="CV5" s="48"/>
+    <row r="8" spans="3:106" ht="18.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="66"/>
+      <c r="W8" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="65"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="65"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="65"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="66"/>
+      <c r="AU8" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="65"/>
+      <c r="AZ8" s="65"/>
+      <c r="BA8" s="65"/>
+      <c r="BB8" s="65"/>
+      <c r="BC8" s="65"/>
+      <c r="BD8" s="65"/>
+      <c r="BE8" s="65"/>
+      <c r="BF8" s="65"/>
+      <c r="BG8" s="65"/>
+      <c r="BH8" s="65"/>
+      <c r="BI8" s="65"/>
+      <c r="BJ8" s="65"/>
+      <c r="BK8" s="65"/>
+      <c r="BL8" s="66"/>
+      <c r="BP8" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ8" s="65"/>
+      <c r="BR8" s="65"/>
+      <c r="BS8" s="65"/>
+      <c r="BT8" s="65"/>
+      <c r="BU8" s="65"/>
+      <c r="BV8" s="65"/>
+      <c r="BW8" s="65"/>
+      <c r="BX8" s="65"/>
+      <c r="BY8" s="65"/>
+      <c r="BZ8" s="65"/>
+      <c r="CA8" s="65"/>
+      <c r="CB8" s="65"/>
+      <c r="CC8" s="65"/>
+      <c r="CD8" s="65"/>
+      <c r="CE8" s="65"/>
+      <c r="CF8" s="65"/>
+      <c r="CG8" s="66"/>
+      <c r="CK8" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL8" s="65"/>
+      <c r="CM8" s="65"/>
+      <c r="CN8" s="65"/>
+      <c r="CO8" s="65"/>
+      <c r="CP8" s="65"/>
+      <c r="CQ8" s="65"/>
+      <c r="CR8" s="65"/>
+      <c r="CS8" s="65"/>
+      <c r="CT8" s="65"/>
+      <c r="CU8" s="65"/>
+      <c r="CV8" s="65"/>
+      <c r="CW8" s="65"/>
+      <c r="CX8" s="65"/>
+      <c r="CY8" s="65"/>
+      <c r="CZ8" s="65"/>
+      <c r="DA8" s="65"/>
+      <c r="DB8" s="66"/>
     </row>
-    <row r="6" spans="3:100" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="48"/>
-      <c r="W6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="X6" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="48"/>
-      <c r="AU6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV6" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="46"/>
-      <c r="BA6" s="46"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="46"/>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="46"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="47"/>
-      <c r="BK6" s="47"/>
-      <c r="BL6" s="48"/>
-      <c r="CE6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="CF6" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="CG6" s="46"/>
-      <c r="CH6" s="46"/>
-      <c r="CI6" s="46"/>
-      <c r="CJ6" s="46"/>
-      <c r="CK6" s="46"/>
-      <c r="CL6" s="46"/>
-      <c r="CM6" s="46"/>
-      <c r="CN6" s="46"/>
-      <c r="CO6" s="46"/>
-      <c r="CP6" s="46"/>
-      <c r="CQ6" s="47"/>
-      <c r="CR6" s="47"/>
-      <c r="CS6" s="47"/>
-      <c r="CT6" s="47"/>
-      <c r="CU6" s="47"/>
-      <c r="CV6" s="48"/>
+    <row r="9" spans="3:106" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:106" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="32"/>
     </row>
-    <row r="7" spans="3:100" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="48"/>
-      <c r="W7" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="48"/>
-      <c r="AU7" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="46"/>
-      <c r="BF7" s="46"/>
-      <c r="BG7" s="47"/>
-      <c r="BH7" s="47"/>
-      <c r="BI7" s="47"/>
-      <c r="BJ7" s="47"/>
-      <c r="BK7" s="47"/>
-      <c r="BL7" s="48"/>
-      <c r="CE7" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="CF7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG7" s="46"/>
-      <c r="CH7" s="46"/>
-      <c r="CI7" s="46"/>
-      <c r="CJ7" s="46"/>
-      <c r="CK7" s="46"/>
-      <c r="CL7" s="46"/>
-      <c r="CM7" s="46"/>
-      <c r="CN7" s="46"/>
-      <c r="CO7" s="46"/>
-      <c r="CP7" s="46"/>
-      <c r="CQ7" s="47"/>
-      <c r="CR7" s="47"/>
-      <c r="CS7" s="47"/>
-      <c r="CT7" s="47"/>
-      <c r="CU7" s="47"/>
-      <c r="CV7" s="48"/>
+    <row r="15" spans="3:106" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="32"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="32"/>
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="32"/>
     </row>
-    <row r="8" spans="3:100" ht="18.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="51"/>
-      <c r="W8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="51"/>
-      <c r="AU8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV8" s="50"/>
-      <c r="AW8" s="50"/>
-      <c r="AX8" s="50"/>
-      <c r="AY8" s="50"/>
-      <c r="AZ8" s="50"/>
-      <c r="BA8" s="50"/>
-      <c r="BB8" s="50"/>
-      <c r="BC8" s="50"/>
-      <c r="BD8" s="50"/>
-      <c r="BE8" s="50"/>
-      <c r="BF8" s="50"/>
-      <c r="BG8" s="50"/>
-      <c r="BH8" s="50"/>
-      <c r="BI8" s="50"/>
-      <c r="BJ8" s="50"/>
-      <c r="BK8" s="50"/>
-      <c r="BL8" s="51"/>
-      <c r="CE8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF8" s="50"/>
-      <c r="CG8" s="50"/>
-      <c r="CH8" s="50"/>
-      <c r="CI8" s="50"/>
-      <c r="CJ8" s="50"/>
-      <c r="CK8" s="50"/>
-      <c r="CL8" s="50"/>
-      <c r="CM8" s="50"/>
-      <c r="CN8" s="50"/>
-      <c r="CO8" s="50"/>
-      <c r="CP8" s="50"/>
-      <c r="CQ8" s="50"/>
-      <c r="CR8" s="50"/>
-      <c r="CS8" s="50"/>
-      <c r="CT8" s="50"/>
-      <c r="CU8" s="50"/>
-      <c r="CV8" s="51"/>
+    <row r="16" spans="3:106" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="32"/>
+      <c r="BB16" s="32"/>
+      <c r="BC16" s="32"/>
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="32"/>
+      <c r="BF16" s="32"/>
+      <c r="BG16" s="32"/>
+      <c r="BH16" s="32"/>
     </row>
-    <row r="9" spans="3:100" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="3:100" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="BL13" t="s">
-        <v>40</v>
-      </c>
+    <row r="17" spans="43:60" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="32"/>
+      <c r="BA17" s="32"/>
+      <c r="BB17" s="32"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="32"/>
+      <c r="BF17" s="32"/>
+      <c r="BG17" s="32"/>
+      <c r="BH17" s="32"/>
     </row>
-    <row r="14" spans="3:100" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="35"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="36"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="36"/>
-      <c r="BD14" s="36"/>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
-      <c r="BH14" s="36"/>
-      <c r="BL14" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="BM14" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="BN14" s="36">
-        <v>18.8</v>
-      </c>
-      <c r="BO14" s="36">
-        <v>37.4</v>
-      </c>
-      <c r="BP14" s="36">
-        <v>54.9</v>
-      </c>
-      <c r="BQ14" s="36">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="BR14" s="36">
-        <v>91.6</v>
-      </c>
-      <c r="BS14" s="36">
-        <v>108.8</v>
-      </c>
-      <c r="BT14" s="36">
-        <v>127</v>
-      </c>
-      <c r="BU14" s="36">
-        <v>144.6</v>
-      </c>
-      <c r="BV14" s="36">
-        <v>162.19999999999999</v>
-      </c>
-      <c r="BW14" s="36">
-        <v>181.9</v>
-      </c>
-      <c r="BX14" s="37">
-        <v>199.1</v>
-      </c>
-      <c r="BY14" s="37">
-        <v>434</v>
-      </c>
-      <c r="BZ14" s="37">
-        <v>675</v>
-      </c>
-      <c r="CA14" s="37">
-        <v>719</v>
-      </c>
-      <c r="CB14" s="37">
-        <v>751</v>
-      </c>
-      <c r="CC14" s="38">
-        <v>776</v>
-      </c>
-      <c r="CD14">
-        <v>0</v>
-      </c>
+    <row r="18" spans="43:60" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
     </row>
-    <row r="15" spans="3:100" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ15" s="39"/>
-      <c r="AR15" s="40"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="41"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="42"/>
-      <c r="BD15" s="42"/>
-      <c r="BE15" s="42"/>
-      <c r="BF15" s="42"/>
-      <c r="BG15" s="42"/>
-      <c r="BH15" s="43"/>
-      <c r="BL15" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="BM15" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="BN15" s="41">
-        <v>0.1</v>
-      </c>
-      <c r="BO15" s="41">
-        <v>0.2</v>
-      </c>
-      <c r="BP15" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="BQ15" s="41">
-        <v>0.4</v>
-      </c>
-      <c r="BR15" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="BS15" s="41">
-        <v>0.6</v>
-      </c>
-      <c r="BT15" s="41">
-        <v>0.7</v>
-      </c>
-      <c r="BU15" s="41">
-        <v>0.8</v>
-      </c>
-      <c r="BV15" s="41">
-        <v>0.9</v>
-      </c>
-      <c r="BW15" s="41">
-        <v>1</v>
-      </c>
-      <c r="BX15" s="41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BY15" s="41">
-        <v>1.2</v>
-      </c>
-      <c r="BZ15" s="42">
-        <v>1.25</v>
-      </c>
-      <c r="CA15" s="42">
-        <v>1.3</v>
-      </c>
-      <c r="CB15" s="42">
-        <v>1.35</v>
-      </c>
-      <c r="CC15" s="42">
-        <v>1.4</v>
-      </c>
-      <c r="CD15" s="54">
-        <v>0</v>
-      </c>
+    <row r="19" spans="43:60" ht="15.65" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
     </row>
-    <row r="16" spans="3:100" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="46"/>
-      <c r="AT16" s="46"/>
-      <c r="AU16" s="46"/>
-      <c r="AV16" s="46"/>
-      <c r="AW16" s="46"/>
-      <c r="AX16" s="46"/>
-      <c r="AY16" s="46"/>
-      <c r="AZ16" s="46"/>
-      <c r="BA16" s="46"/>
-      <c r="BB16" s="46"/>
-      <c r="BC16" s="47"/>
-      <c r="BD16" s="47"/>
-      <c r="BE16" s="47"/>
-      <c r="BF16" s="47"/>
-      <c r="BG16" s="47"/>
-      <c r="BH16" s="48"/>
-      <c r="BL16" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM16" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="BN16" s="46">
-        <v>-1.149</v>
-      </c>
-      <c r="BO16" s="46">
-        <v>-2.2949999999999999</v>
-      </c>
-      <c r="BP16" s="46">
-        <v>-3.36</v>
-      </c>
-      <c r="BQ16" s="46">
-        <v>-4.42</v>
-      </c>
-      <c r="BR16" s="46">
-        <v>-5.58</v>
-      </c>
-      <c r="BS16" s="46">
-        <v>-6.62</v>
-      </c>
-      <c r="BT16" s="46">
-        <v>-7.73</v>
-      </c>
-      <c r="BU16" s="46">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="BV16" s="46">
-        <v>-9.8800000000000008</v>
-      </c>
-      <c r="BW16" s="46">
-        <v>-11.08</v>
-      </c>
-      <c r="BX16" s="47">
-        <v>-12.12</v>
-      </c>
-      <c r="BY16" s="47">
-        <v>-12.98</v>
-      </c>
-      <c r="BZ16" s="47">
-        <v>-12.99</v>
-      </c>
-      <c r="CA16" s="47">
-        <v>-12.99</v>
-      </c>
-      <c r="CB16" s="47">
-        <v>-12.99</v>
-      </c>
-      <c r="CC16" s="48">
-        <v>-12.99</v>
-      </c>
-      <c r="CD16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="43:81" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="46"/>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="46"/>
-      <c r="AV17" s="46"/>
-      <c r="AW17" s="46"/>
-      <c r="AX17" s="46"/>
-      <c r="AY17" s="46"/>
-      <c r="AZ17" s="46"/>
-      <c r="BA17" s="46"/>
-      <c r="BB17" s="46"/>
-      <c r="BC17" s="47"/>
-      <c r="BD17" s="47"/>
-      <c r="BE17" s="47"/>
-      <c r="BF17" s="47"/>
-      <c r="BG17" s="47"/>
-      <c r="BH17" s="48"/>
-      <c r="BL17" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="BM17" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN17" s="46"/>
-      <c r="BO17" s="46"/>
-      <c r="BP17" s="46"/>
-      <c r="BQ17" s="46"/>
-      <c r="BR17" s="46"/>
-      <c r="BS17" s="46"/>
-      <c r="BT17" s="46"/>
-      <c r="BU17" s="46"/>
-      <c r="BV17" s="46"/>
-      <c r="BW17" s="46"/>
-      <c r="BX17" s="47"/>
-      <c r="BY17" s="47"/>
-      <c r="BZ17" s="47"/>
-      <c r="CA17" s="47"/>
-      <c r="CB17" s="47"/>
-      <c r="CC17" s="48"/>
-    </row>
-    <row r="18" spans="43:81" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="46"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="46"/>
-      <c r="AX18" s="46"/>
-      <c r="AY18" s="46"/>
-      <c r="AZ18" s="46"/>
-      <c r="BA18" s="46"/>
-      <c r="BB18" s="46"/>
-      <c r="BC18" s="47"/>
-      <c r="BD18" s="47"/>
-      <c r="BE18" s="47"/>
-      <c r="BF18" s="47"/>
-      <c r="BG18" s="47"/>
-      <c r="BH18" s="48"/>
-      <c r="BL18" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="BM18" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN18" s="46"/>
-      <c r="BO18" s="46"/>
-      <c r="BP18" s="46"/>
-      <c r="BQ18" s="46"/>
-      <c r="BR18" s="46"/>
-      <c r="BS18" s="46"/>
-      <c r="BT18" s="46"/>
-      <c r="BU18" s="46"/>
-      <c r="BV18" s="46"/>
-      <c r="BW18" s="46"/>
-      <c r="BX18" s="47"/>
-      <c r="BY18" s="47"/>
-      <c r="BZ18" s="47"/>
-      <c r="CA18" s="47"/>
-      <c r="CB18" s="47"/>
-      <c r="CC18" s="48"/>
-    </row>
-    <row r="19" spans="43:81" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="50"/>
-      <c r="AZ19" s="50"/>
-      <c r="BA19" s="50"/>
-      <c r="BB19" s="50"/>
-      <c r="BC19" s="50"/>
-      <c r="BD19" s="50"/>
-      <c r="BE19" s="50"/>
-      <c r="BF19" s="50"/>
-      <c r="BG19" s="50"/>
-      <c r="BH19" s="51"/>
-      <c r="BL19" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM19" s="50"/>
-      <c r="BN19" s="50"/>
-      <c r="BO19" s="50"/>
-      <c r="BP19" s="50"/>
-      <c r="BQ19" s="50"/>
-      <c r="BR19" s="50"/>
-      <c r="BS19" s="50"/>
-      <c r="BT19" s="50"/>
-      <c r="BU19" s="50"/>
-      <c r="BV19" s="50"/>
-      <c r="BW19" s="50"/>
-      <c r="BX19" s="50"/>
-      <c r="BY19" s="50"/>
-      <c r="BZ19" s="50"/>
-      <c r="CA19" s="50"/>
-      <c r="CB19" s="50"/>
-      <c r="CC19" s="51"/>
-    </row>
-    <row r="20" spans="43:81" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="C8:T8"/>
     <mergeCell ref="W8:AN8"/>
-    <mergeCell ref="AQ19:BH19"/>
-    <mergeCell ref="BL19:CC19"/>
-    <mergeCell ref="CE8:CV8"/>
+    <mergeCell ref="BP8:CG8"/>
+    <mergeCell ref="CK8:DB8"/>
     <mergeCell ref="AU8:BL8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Uloha5/uloha5.xlsx
+++ b/Uloha5/uloha5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B96DF3B7-5137-4FC4-9D96-1C4C0B66EA9E}"/>
+  <xr:revisionPtr revIDLastSave="492" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85419484-7619-4B01-A33F-F07C639C1931}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5A AUDIO" sheetId="1" r:id="rId1"/>
@@ -1317,6 +1317,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1356,31 +1377,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3001,6 +3001,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0841197212683924E-2"/>
+                  <c:y val="1.5016410962653385E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="cs-CZ"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'5B'!$CM$3:$CS$3</c:f>
@@ -6231,10 +6281,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6504,15 +6550,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:28" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6549,22 +6595,22 @@
       <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
-      <c r="W3" s="55" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="46"/>
+      <c r="W3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="57"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="46"/>
     </row>
-    <row r="4" spans="3:28" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
@@ -6613,20 +6659,20 @@
       <c r="T4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="62" t="s">
+      <c r="W4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="62" t="s">
+      <c r="X4" s="48"/>
+      <c r="Y4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="62" t="s">
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="63"/>
+      <c r="AB4" s="48"/>
     </row>
-    <row r="5" spans="3:28" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
@@ -6675,20 +6721,20 @@
       <c r="T5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="60" t="s">
+      <c r="W5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="60" t="s">
+      <c r="X5" s="43"/>
+      <c r="Y5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="60" t="s">
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="61"/>
+      <c r="AB5" s="43"/>
     </row>
-    <row r="6" spans="3:28" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
@@ -6739,21 +6785,21 @@
         <f t="array" ref="T6:T11">20*LOG((S6:S11*0.001)/(R6:R11),10)</f>
         <v>-99.901667181904344</v>
       </c>
-      <c r="W6" s="50">
+      <c r="W6" s="57">
         <v>0.29199999999999998</v>
       </c>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="52">
+      <c r="X6" s="58"/>
+      <c r="Y6" s="59">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="53">
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="60">
         <f>20*LOG((W6)/(Y6*0.001),10)</f>
         <v>97.2664572024091</v>
       </c>
-      <c r="AB6" s="54"/>
+      <c r="AB6" s="61"/>
     </row>
-    <row r="7" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q7" s="14">
         <v>1994</v>
       </c>
@@ -6766,16 +6812,16 @@
       <c r="T7" s="11">
         <v>-95.217492761043786</v>
       </c>
-      <c r="W7" s="55" t="s">
+      <c r="W7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="57"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="46"/>
     </row>
-    <row r="8" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="41" t="s">
         <v>50</v>
       </c>
@@ -6798,22 +6844,22 @@
       <c r="T8" s="11">
         <v>-93.884580470502357</v>
       </c>
-      <c r="W8" s="58" t="s">
+      <c r="W8" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="60" t="s">
+      <c r="X8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="60" t="s">
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="61"/>
+      <c r="AA8" s="43"/>
       <c r="AB8" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q9" s="14">
         <v>9970</v>
       </c>
@@ -6826,20 +6872,20 @@
       <c r="T9" s="11">
         <v>-90.796195255371188</v>
       </c>
-      <c r="W9" s="59"/>
-      <c r="X9" s="60" t="s">
+      <c r="W9" s="63"/>
+      <c r="X9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="60" t="s">
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" s="61"/>
+      <c r="AA9" s="43"/>
       <c r="AB9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q10" s="13" t="s">
         <v>14</v>
       </c>
@@ -6855,20 +6901,20 @@
       <c r="W10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="42">
+      <c r="X10" s="49">
         <v>4.71</v>
       </c>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="46">
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="53">
         <v>3.17</v>
       </c>
-      <c r="AA10" s="47"/>
+      <c r="AA10" s="54"/>
       <c r="AB10" s="11">
         <f>X10/Z10</f>
         <v>1.4858044164037856</v>
       </c>
     </row>
-    <row r="11" spans="3:28" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q11" s="4" t="s">
         <v>15</v>
       </c>
@@ -6884,28 +6930,20 @@
       <c r="W11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="48">
+      <c r="X11" s="51"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="55">
         <v>3.6</v>
       </c>
-      <c r="AA11" s="49"/>
+      <c r="AA11" s="56"/>
       <c r="AB11" s="6">
         <f>X10/Z11</f>
         <v>1.3083333333333333</v>
       </c>
     </row>
-    <row r="12" spans="3:28" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="3:28" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="X10:Y11"/>
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="Z11:AA11"/>
@@ -6918,6 +6956,14 @@
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6928,17 +6974,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EE3519-B4D8-42E5-A4D3-DAE0E3976C95}">
   <dimension ref="C2:DB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CG9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CC5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CM5" activeCellId="1" sqref="CM3:CS3 CM5:CS5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="26" max="26" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:106" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>38</v>
       </c>
@@ -6955,7 +7001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="3:106" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:106" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
@@ -7227,7 +7273,7 @@
       <c r="DA3" s="18"/>
       <c r="DB3" s="19"/>
     </row>
-    <row r="4" spans="3:106" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:106" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="20" t="s">
         <v>30</v>
       </c>
@@ -7499,7 +7545,7 @@
       <c r="DA4" s="23"/>
       <c r="DB4" s="24"/>
     </row>
-    <row r="5" spans="3:106" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:106" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="25" t="s">
         <v>32</v>
       </c>
@@ -7771,7 +7817,7 @@
       <c r="DA5" s="28"/>
       <c r="DB5" s="29"/>
     </row>
-    <row r="6" spans="3:106" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="25" t="s">
         <v>33</v>
       </c>
@@ -8048,7 +8094,7 @@
       <c r="DA6" s="28"/>
       <c r="DB6" s="29"/>
     </row>
-    <row r="7" spans="3:106" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:106" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
@@ -8325,7 +8371,7 @@
       <c r="DA7" s="28"/>
       <c r="DB7" s="29"/>
     </row>
-    <row r="8" spans="3:106" ht="18.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:106" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="64" t="s">
         <v>49</v>
       </c>
@@ -8427,8 +8473,8 @@
       <c r="DA8" s="65"/>
       <c r="DB8" s="66"/>
     </row>
-    <row r="9" spans="3:106" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="3:106" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:106" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="3:106" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AQ14" s="35"/>
       <c r="AR14" s="36"/>
       <c r="AS14" s="32"/>
@@ -8448,7 +8494,7 @@
       <c r="BG14" s="32"/>
       <c r="BH14" s="32"/>
     </row>
-    <row r="15" spans="3:106" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:106" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AQ15" s="35"/>
       <c r="AR15" s="37"/>
       <c r="AS15" s="32"/>
@@ -8468,7 +8514,7 @@
       <c r="BG15" s="32"/>
       <c r="BH15" s="32"/>
     </row>
-    <row r="16" spans="3:106" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:106" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AQ16" s="36"/>
       <c r="AR16" s="36"/>
       <c r="AS16" s="32"/>
@@ -8488,7 +8534,7 @@
       <c r="BG16" s="32"/>
       <c r="BH16" s="32"/>
     </row>
-    <row r="17" spans="43:60" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="17" spans="43:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AQ17" s="35"/>
       <c r="AR17" s="36"/>
       <c r="AS17" s="32"/>
@@ -8508,13 +8554,13 @@
       <c r="BG17" s="32"/>
       <c r="BH17" s="32"/>
     </row>
-    <row r="18" spans="43:60" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="18" spans="43:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AQ18" s="35"/>
       <c r="AR18" s="36"/>
       <c r="AS18" s="32"/>
       <c r="AT18" s="32"/>
     </row>
-    <row r="19" spans="43:60" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="19" spans="43:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AQ19" s="38"/>
       <c r="AR19" s="38"/>
       <c r="AS19" s="38"/>

--- a/Uloha5/uloha5.xlsx
+++ b/Uloha5/uloha5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="492" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85419484-7619-4B01-A33F-F07C639C1931}"/>
+  <xr:revisionPtr revIDLastSave="500" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F7422A-D48B-43A3-BF1D-68E731894D62}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -620,6 +620,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1192,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1317,27 +1320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,25 +1344,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1391,6 +1385,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6281,6 +6296,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6546,8 +6565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6595,20 +6614,20 @@
       <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="46"/>
-      <c r="W3" s="44" t="s">
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="W3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="54"/>
     </row>
     <row r="4" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
@@ -6659,18 +6678,18 @@
       <c r="T4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="47" t="s">
+      <c r="W4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="47" t="s">
+      <c r="X4" s="60"/>
+      <c r="Y4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="47" t="s">
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="48"/>
+      <c r="AB4" s="60"/>
     </row>
     <row r="5" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
@@ -6721,18 +6740,18 @@
       <c r="T5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="42" t="s">
+      <c r="X5" s="58"/>
+      <c r="Y5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="42" t="s">
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="43"/>
+      <c r="AB5" s="58"/>
     </row>
     <row r="6" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5" t="s">
@@ -6775,51 +6794,51 @@
       <c r="Q6" s="13">
         <v>997</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="67">
         <v>0.69211999999999996</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="67">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="T6" s="11" cm="1">
+      <c r="T6" s="69" cm="1">
         <f t="array" ref="T6:T11">20*LOG((S6:S11*0.001)/(R6:R11),10)</f>
         <v>-99.901667181904344</v>
       </c>
-      <c r="W6" s="57">
+      <c r="W6" s="64">
         <v>0.29199999999999998</v>
       </c>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="59">
+      <c r="X6" s="65"/>
+      <c r="Y6" s="66">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="60">
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="50">
         <f>20*LOG((W6)/(Y6*0.001),10)</f>
         <v>97.2664572024091</v>
       </c>
-      <c r="AB6" s="61"/>
+      <c r="AB6" s="51"/>
     </row>
     <row r="7" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q7" s="14">
         <v>1994</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="67">
         <v>0.69191999999999998</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="67">
         <v>1.2E-2</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="69">
         <v>-95.217492761043786</v>
       </c>
-      <c r="W7" s="44" t="s">
+      <c r="W7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="54"/>
     </row>
     <row r="8" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="41" t="s">
@@ -6835,26 +6854,26 @@
       <c r="Q8" s="14">
         <v>4985</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="67">
         <v>0.69240000000000002</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="67">
         <v>1.4E-2</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="69">
         <v>-93.884580470502357</v>
       </c>
-      <c r="W8" s="62" t="s">
+      <c r="W8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="42" t="s">
+      <c r="X8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="42" t="s">
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="43"/>
+      <c r="AA8" s="58"/>
       <c r="AB8" s="12" t="s">
         <v>24</v>
       </c>
@@ -6863,24 +6882,24 @@
       <c r="Q9" s="14">
         <v>9970</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="67">
         <v>0.69316999999999995</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="67">
         <v>0.02</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="69">
         <v>-90.796195255371188</v>
       </c>
-      <c r="W9" s="63"/>
-      <c r="X9" s="42" t="s">
+      <c r="W9" s="56"/>
+      <c r="X9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="42" t="s">
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" s="43"/>
+      <c r="AA9" s="58"/>
       <c r="AB9" s="6" t="s">
         <v>26</v>
       </c>
@@ -6889,26 +6908,26 @@
       <c r="Q10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="67">
         <v>0.69442000000000004</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="67">
         <v>3.1E-2</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="69">
         <v>-87.005210532713079</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="49">
+      <c r="X10" s="42">
         <v>4.71</v>
       </c>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="53">
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="46">
         <v>3.17</v>
       </c>
-      <c r="AA10" s="54"/>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="11">
         <f>X10/Z10</f>
         <v>1.4858044164037856</v>
@@ -6918,24 +6937,24 @@
       <c r="Q11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="68">
         <v>0.69689999999999996</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="68">
         <v>4.7E-2</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="70">
         <v>-83.421452131683594</v>
       </c>
       <c r="W11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="55">
+      <c r="X11" s="44"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="48">
         <v>3.6</v>
       </c>
-      <c r="AA11" s="56"/>
+      <c r="AA11" s="49"/>
       <c r="AB11" s="6">
         <f>X10/Z11</f>
         <v>1.3083333333333333</v>
@@ -6944,6 +6963,14 @@
     <row r="12" spans="3:28" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="X10:Y11"/>
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="Z11:AA11"/>
@@ -6956,14 +6983,6 @@
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6974,8 +6993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EE3519-B4D8-42E5-A4D3-DAE0E3976C95}">
   <dimension ref="C2:DB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CM5" activeCellId="1" sqref="CM3:CS3 CM5:CS5"/>
+    <sheetView tabSelected="1" topLeftCell="BY5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8372,106 +8391,106 @@
       <c r="DB7" s="29"/>
     </row>
     <row r="8" spans="3:106" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="66"/>
-      <c r="W8" s="64" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="63"/>
+      <c r="W8" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="66"/>
-      <c r="AU8" s="64" t="s">
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="63"/>
+      <c r="AU8" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="65"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="65"/>
-      <c r="BF8" s="65"/>
-      <c r="BG8" s="65"/>
-      <c r="BH8" s="65"/>
-      <c r="BI8" s="65"/>
-      <c r="BJ8" s="65"/>
-      <c r="BK8" s="65"/>
-      <c r="BL8" s="66"/>
-      <c r="BP8" s="64" t="s">
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="62"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="62"/>
+      <c r="BJ8" s="62"/>
+      <c r="BK8" s="62"/>
+      <c r="BL8" s="63"/>
+      <c r="BP8" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="BQ8" s="65"/>
-      <c r="BR8" s="65"/>
-      <c r="BS8" s="65"/>
-      <c r="BT8" s="65"/>
-      <c r="BU8" s="65"/>
-      <c r="BV8" s="65"/>
-      <c r="BW8" s="65"/>
-      <c r="BX8" s="65"/>
-      <c r="BY8" s="65"/>
-      <c r="BZ8" s="65"/>
-      <c r="CA8" s="65"/>
-      <c r="CB8" s="65"/>
-      <c r="CC8" s="65"/>
-      <c r="CD8" s="65"/>
-      <c r="CE8" s="65"/>
-      <c r="CF8" s="65"/>
-      <c r="CG8" s="66"/>
-      <c r="CK8" s="64" t="s">
+      <c r="BQ8" s="62"/>
+      <c r="BR8" s="62"/>
+      <c r="BS8" s="62"/>
+      <c r="BT8" s="62"/>
+      <c r="BU8" s="62"/>
+      <c r="BV8" s="62"/>
+      <c r="BW8" s="62"/>
+      <c r="BX8" s="62"/>
+      <c r="BY8" s="62"/>
+      <c r="BZ8" s="62"/>
+      <c r="CA8" s="62"/>
+      <c r="CB8" s="62"/>
+      <c r="CC8" s="62"/>
+      <c r="CD8" s="62"/>
+      <c r="CE8" s="62"/>
+      <c r="CF8" s="62"/>
+      <c r="CG8" s="63"/>
+      <c r="CK8" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="CL8" s="65"/>
-      <c r="CM8" s="65"/>
-      <c r="CN8" s="65"/>
-      <c r="CO8" s="65"/>
-      <c r="CP8" s="65"/>
-      <c r="CQ8" s="65"/>
-      <c r="CR8" s="65"/>
-      <c r="CS8" s="65"/>
-      <c r="CT8" s="65"/>
-      <c r="CU8" s="65"/>
-      <c r="CV8" s="65"/>
-      <c r="CW8" s="65"/>
-      <c r="CX8" s="65"/>
-      <c r="CY8" s="65"/>
-      <c r="CZ8" s="65"/>
-      <c r="DA8" s="65"/>
-      <c r="DB8" s="66"/>
+      <c r="CL8" s="62"/>
+      <c r="CM8" s="62"/>
+      <c r="CN8" s="62"/>
+      <c r="CO8" s="62"/>
+      <c r="CP8" s="62"/>
+      <c r="CQ8" s="62"/>
+      <c r="CR8" s="62"/>
+      <c r="CS8" s="62"/>
+      <c r="CT8" s="62"/>
+      <c r="CU8" s="62"/>
+      <c r="CV8" s="62"/>
+      <c r="CW8" s="62"/>
+      <c r="CX8" s="62"/>
+      <c r="CY8" s="62"/>
+      <c r="CZ8" s="62"/>
+      <c r="DA8" s="62"/>
+      <c r="DB8" s="63"/>
     </row>
     <row r="9" spans="3:106" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="3:106" ht="15.6" x14ac:dyDescent="0.3">

--- a/Uloha5/uloha5.xlsx
+++ b/Uloha5/uloha5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="500" documentId="11_F25DC773A252ABDACC10484611DA68E65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F7422A-D48B-43A3-BF1D-68E731894D62}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5A AUDIO" sheetId="1" r:id="rId1"/>
     <sheet name="5B" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,51 +67,16 @@
     <t>-</t>
   </si>
   <si>
+    <t>Přeslechy z kanálu 1 do kanálu 2</t>
+  </si>
+  <si>
+    <t>Dynamický rozsah</t>
+  </si>
+  <si>
     <t>f</t>
   </si>
   <si>
     <t>Hz</t>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>dBV</t>
-  </si>
-  <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>mV</t>
-  </si>
-  <si>
-    <t>Přeslechy z kanálu 1 do kanálu 2</t>
   </si>
   <si>
     <r>
@@ -162,21 +127,6 @@
     </r>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>dB</t>
-  </si>
-  <si>
-    <t>14 955</t>
-  </si>
-  <si>
-    <t>19 940</t>
-  </si>
-  <si>
-    <t>Dynamický rozsah</t>
-  </si>
-  <si>
     <r>
       <t>U</t>
     </r>
@@ -212,7 +162,57 @@
     <t>SNR</t>
   </si>
   <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>dBV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
     <t>Rychlost přeběhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THD = </t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>Hrana</t>
@@ -259,10 +259,31 @@
     <t>V/µs</t>
   </si>
   <si>
+    <t>14 955</t>
+  </si>
+  <si>
     <t>Náběžná</t>
   </si>
   <si>
+    <t>19 940</t>
+  </si>
+  <si>
     <t>Sestupná</t>
+  </si>
+  <si>
+    <t>U/U</t>
+  </si>
+  <si>
+    <t>U/I</t>
+  </si>
+  <si>
+    <t>I/I</t>
+  </si>
+  <si>
+    <t>I/U</t>
+  </si>
+  <si>
+    <t>log U/U</t>
   </si>
   <si>
     <r>
@@ -295,6 +316,9 @@
     </r>
   </si>
   <si>
+    <t>mA</t>
+  </si>
+  <si>
     <r>
       <t>m</t>
     </r>
@@ -311,6 +335,42 @@
   <si>
     <r>
       <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I</t>
     </r>
     <r>
       <rPr>
@@ -354,145 +414,6 @@
     </r>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pracovní oblast: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ={…… až ……} V,  Převodní konst. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = ……,  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>vst</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> = ……</t>
-    </r>
-  </si>
-  <si>
-    <t>mA</t>
-  </si>
-  <si>
-    <t>U/U</t>
-  </si>
-  <si>
-    <t>U/I</t>
-  </si>
-  <si>
-    <t>I/U</t>
-  </si>
-  <si>
-    <t>I/I</t>
-  </si>
-  <si>
-    <t>log U/U</t>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t>k</t>
     </r>
@@ -509,6 +430,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>S</t>
@@ -610,10 +534,86 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">THD = </t>
-  </si>
-  <si>
-    <t>%</t>
+    <r>
+      <t xml:space="preserve">Pracovní oblast: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ={…… až ……} V,  Převodní konst. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = ……,  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> = ……</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,6 +1320,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1344,37 +1377,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,30 +1407,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1427,7 +1427,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1464,7 +1464,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1688,7 +1688,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208308575"/>
@@ -1750,7 +1750,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="208307615"/>
@@ -1798,7 +1798,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1812,7 +1812,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1849,7 +1849,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2097,7 +2097,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107193503"/>
@@ -2159,7 +2159,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="107192543"/>
@@ -2207,7 +2207,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2221,7 +2221,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2258,7 +2258,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2427,7 +2427,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="717316736"/>
@@ -2489,7 +2489,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1092803872"/>
@@ -2537,7 +2537,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2551,7 +2551,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2588,7 +2588,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2818,7 +2818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="717315776"/>
@@ -2880,7 +2880,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="717315296"/>
@@ -2928,7 +2928,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2942,7 +2942,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2979,7 +2979,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3061,7 +3061,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="cs-CZ"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3200,7 +3200,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1092805312"/>
@@ -3262,7 +3262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1092807712"/>
@@ -3310,7 +3310,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6296,10 +6296,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6569,15 +6565,15 @@
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:28" ht="15" thickBot="1"/>
+    <row r="3" spans="3:28" ht="15.6" thickTop="1" thickBot="1">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6614,27 +6610,27 @@
       <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="Q3" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
-      <c r="W3" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="54"/>
+      <c r="Q3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="50"/>
+      <c r="W3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="50"/>
     </row>
-    <row r="4" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:28" ht="16.899999999999999" thickTop="1" thickBot="1">
       <c r="C4" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7">
         <v>997</v>
@@ -6667,36 +6663,36 @@
         <v>9970</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="X4" s="52"/>
+      <c r="Y4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB4" s="60"/>
+      <c r="AB4" s="52"/>
     </row>
-    <row r="5" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:28" ht="16.899999999999999" thickTop="1" thickBot="1">
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5" s="10">
         <v>-12.5</v>
@@ -6729,36 +6725,36 @@
         <v>-88.75</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="58"/>
+        <v>16</v>
+      </c>
+      <c r="W5" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="47"/>
     </row>
-    <row r="6" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:28" ht="16.899999999999999" thickTop="1" thickBot="1">
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7" cm="1">
         <f t="array" ref="E6:N6">POWER(10,(E5:N5/20))*1000</f>
@@ -6794,183 +6790,175 @@
       <c r="Q6" s="13">
         <v>997</v>
       </c>
-      <c r="R6" s="67">
+      <c r="R6" s="42">
         <v>0.69211999999999996</v>
       </c>
-      <c r="S6" s="67">
+      <c r="S6" s="42">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="T6" s="69" cm="1">
+      <c r="T6" s="44" cm="1">
         <f t="array" ref="T6:T11">20*LOG((S6:S11*0.001)/(R6:R11),10)</f>
         <v>-99.901667181904344</v>
       </c>
-      <c r="W6" s="64">
+      <c r="W6" s="61">
         <v>0.29199999999999998</v>
       </c>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="66">
+      <c r="X6" s="62"/>
+      <c r="Y6" s="63">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="50">
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="64">
         <f>20*LOG((W6)/(Y6*0.001),10)</f>
         <v>97.2664572024091</v>
       </c>
-      <c r="AB6" s="51"/>
+      <c r="AB6" s="65"/>
     </row>
-    <row r="7" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:28" ht="15.6" thickTop="1" thickBot="1">
       <c r="Q7" s="14">
         <v>1994</v>
       </c>
-      <c r="R7" s="67">
+      <c r="R7" s="42">
         <v>0.69191999999999998</v>
       </c>
-      <c r="S7" s="67">
+      <c r="S7" s="42">
         <v>1.2E-2</v>
       </c>
-      <c r="T7" s="69">
+      <c r="T7" s="44">
         <v>-95.217492761043786</v>
       </c>
-      <c r="W7" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="54"/>
+      <c r="W7" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="50"/>
     </row>
-    <row r="8" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:28" ht="15.6" thickTop="1" thickBot="1">
       <c r="D8" s="41" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">(SQRT(SUM(POWER(F6:N6,2)))/SQRT(SUM(POWER(E6:N6,2))))*100</f>
         <v>0.28964762660004151</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="14">
         <v>4985</v>
       </c>
-      <c r="R8" s="67">
+      <c r="R8" s="42">
         <v>0.69240000000000002</v>
       </c>
-      <c r="S8" s="67">
+      <c r="S8" s="42">
         <v>1.4E-2</v>
       </c>
-      <c r="T8" s="69">
+      <c r="T8" s="44">
         <v>-93.884580470502357</v>
       </c>
-      <c r="W8" s="55" t="s">
+      <c r="W8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="57" t="s">
+      <c r="X8" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="57" t="s">
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="58"/>
+      <c r="AA8" s="47"/>
       <c r="AB8" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:28" ht="15.6" thickTop="1" thickBot="1">
       <c r="Q9" s="14">
         <v>9970</v>
       </c>
-      <c r="R9" s="67">
+      <c r="R9" s="42">
         <v>0.69316999999999995</v>
       </c>
-      <c r="S9" s="67">
+      <c r="S9" s="42">
         <v>0.02</v>
       </c>
-      <c r="T9" s="69">
+      <c r="T9" s="44">
         <v>-90.796195255371188</v>
       </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="57" t="s">
+      <c r="W9" s="67"/>
+      <c r="X9" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" s="58"/>
+      <c r="AA9" s="47"/>
       <c r="AB9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:28" ht="15.6" thickTop="1" thickBot="1">
       <c r="Q10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="67">
+        <v>27</v>
+      </c>
+      <c r="R10" s="42">
         <v>0.69442000000000004</v>
       </c>
-      <c r="S10" s="67">
+      <c r="S10" s="42">
         <v>3.1E-2</v>
       </c>
-      <c r="T10" s="69">
+      <c r="T10" s="44">
         <v>-87.005210532713079</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="42">
+        <v>28</v>
+      </c>
+      <c r="X10" s="53">
         <v>4.71</v>
       </c>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="46">
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="57">
         <v>3.17</v>
       </c>
-      <c r="AA10" s="47"/>
+      <c r="AA10" s="58"/>
       <c r="AB10" s="11">
         <f>X10/Z10</f>
         <v>1.4858044164037856</v>
       </c>
     </row>
-    <row r="11" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:28" ht="15" thickBot="1">
       <c r="Q11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="68">
+        <v>29</v>
+      </c>
+      <c r="R11" s="43">
         <v>0.69689999999999996</v>
       </c>
-      <c r="S11" s="68">
+      <c r="S11" s="43">
         <v>4.7E-2</v>
       </c>
-      <c r="T11" s="70">
+      <c r="T11" s="45">
         <v>-83.421452131683594</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="48">
+        <v>30</v>
+      </c>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="59">
         <v>3.6</v>
       </c>
-      <c r="AA11" s="49"/>
+      <c r="AA11" s="60"/>
       <c r="AB11" s="6">
         <f>X10/Z11</f>
         <v>1.3083333333333333</v>
       </c>
     </row>
-    <row r="12" spans="3:28" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:28" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="X10:Y11"/>
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="Z11:AA11"/>
@@ -6983,6 +6971,14 @@
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6997,35 +6993,35 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="26" max="26" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:106" ht="15" thickBot="1">
       <c r="C2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AU2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="BP2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="CK2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="3:106" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:106" ht="19.149999999999999" thickTop="1" thickBot="1">
       <c r="C3" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
@@ -7076,10 +7072,10 @@
         <v>7.5</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y3" s="17">
         <v>0</v>
@@ -7142,10 +7138,10 @@
         <v>15</v>
       </c>
       <c r="AU3" s="20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AV3" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AW3" s="22">
         <v>0</v>
@@ -7199,10 +7195,10 @@
         <v>4</v>
       </c>
       <c r="BP3" s="20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="BQ3" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BR3" s="39">
         <v>0</v>
@@ -7256,10 +7252,10 @@
         <v>1.4</v>
       </c>
       <c r="CK3" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="CL3" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CM3" s="17">
         <v>0.1</v>
@@ -7292,12 +7288,12 @@
       <c r="DA3" s="18"/>
       <c r="DB3" s="19"/>
     </row>
-    <row r="4" spans="3:106" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:106" ht="19.149999999999999" thickTop="1" thickBot="1">
       <c r="C4" s="20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E4" s="22">
         <v>0</v>
@@ -7348,10 +7344,10 @@
         <v>0.9</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Y4" s="22">
         <v>0</v>
@@ -7414,10 +7410,10 @@
         <v>112.5</v>
       </c>
       <c r="AU4" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AV4" s="16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AW4" s="17">
         <v>0</v>
@@ -7471,10 +7467,10 @@
         <v>676</v>
       </c>
       <c r="BP4" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BQ4" s="16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BR4" s="39">
         <v>0</v>
@@ -7528,10 +7524,10 @@
         <v>776</v>
       </c>
       <c r="CK4" s="20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="CL4" s="21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="CM4" s="22">
         <v>0.6</v>
@@ -7564,12 +7560,12 @@
       <c r="DA4" s="23"/>
       <c r="DB4" s="24"/>
     </row>
-    <row r="5" spans="3:106" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:106" ht="19.149999999999999" thickTop="1" thickBot="1">
       <c r="C5" s="25" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="27">
         <v>0</v>
@@ -7620,10 +7616,10 @@
         <v>15.07</v>
       </c>
       <c r="W5" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X5" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y5" s="27">
         <v>0</v>
@@ -7686,10 +7682,10 @@
         <v>1.47</v>
       </c>
       <c r="AU5" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AV5" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AW5" s="27">
         <v>0</v>
@@ -7743,10 +7739,10 @@
         <v>-6.44</v>
       </c>
       <c r="BP5" s="25" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="BQ5" s="26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BR5" s="39">
         <v>0</v>
@@ -7800,10 +7796,10 @@
         <v>-12.99</v>
       </c>
       <c r="CK5" s="25" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="CL5" s="26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CM5" s="27">
         <v>-0.48099999999999998</v>
@@ -7836,12 +7832,12 @@
       <c r="DA5" s="28"/>
       <c r="DB5" s="29"/>
     </row>
-    <row r="6" spans="3:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:106" ht="18.600000000000001" thickBot="1">
       <c r="C6" s="25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>1</v>
@@ -7893,7 +7889,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="W6" s="25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="X6" s="26" t="s">
         <v>45</v>
@@ -7960,7 +7956,7 @@
         <v>133.33333333333334</v>
       </c>
       <c r="AU6" s="25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AV6" s="40" t="s">
         <v>46</v>
@@ -8018,7 +8014,7 @@
         <v>169</v>
       </c>
       <c r="BP6" s="25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="BQ6" s="40" t="s">
         <v>46</v>
@@ -8076,7 +8072,7 @@
         <v>554.28571428571433</v>
       </c>
       <c r="CK6" s="25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="CL6" s="26" t="s">
         <v>45</v>
@@ -8113,9 +8109,9 @@
       <c r="DA6" s="28"/>
       <c r="DB6" s="29"/>
     </row>
-    <row r="7" spans="3:106" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:106" ht="16.149999999999999" thickBot="1">
       <c r="C7" s="25" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>1</v>
@@ -8170,10 +8166,10 @@
         <v>2.0093333333333332</v>
       </c>
       <c r="W7" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X7" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y7" s="27" t="s">
         <v>1</v>
@@ -8237,7 +8233,7 @@
         <v>9.7999999999999997E-5</v>
       </c>
       <c r="AU7" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AV7" s="26" t="s">
         <v>1</v>
@@ -8353,7 +8349,7 @@
         <v>-9.2785714285714302</v>
       </c>
       <c r="CK7" s="25" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="CL7" s="26" t="s">
         <v>1</v>
@@ -8390,110 +8386,110 @@
       <c r="DA7" s="28"/>
       <c r="DB7" s="29"/>
     </row>
-    <row r="8" spans="3:106" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="63"/>
-      <c r="W8" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="63"/>
-      <c r="AU8" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62"/>
-      <c r="BB8" s="62"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="62"/>
-      <c r="BF8" s="62"/>
-      <c r="BG8" s="62"/>
-      <c r="BH8" s="62"/>
-      <c r="BI8" s="62"/>
-      <c r="BJ8" s="62"/>
-      <c r="BK8" s="62"/>
-      <c r="BL8" s="63"/>
-      <c r="BP8" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ8" s="62"/>
-      <c r="BR8" s="62"/>
-      <c r="BS8" s="62"/>
-      <c r="BT8" s="62"/>
-      <c r="BU8" s="62"/>
-      <c r="BV8" s="62"/>
-      <c r="BW8" s="62"/>
-      <c r="BX8" s="62"/>
-      <c r="BY8" s="62"/>
-      <c r="BZ8" s="62"/>
-      <c r="CA8" s="62"/>
-      <c r="CB8" s="62"/>
-      <c r="CC8" s="62"/>
-      <c r="CD8" s="62"/>
-      <c r="CE8" s="62"/>
-      <c r="CF8" s="62"/>
-      <c r="CG8" s="63"/>
-      <c r="CK8" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL8" s="62"/>
-      <c r="CM8" s="62"/>
-      <c r="CN8" s="62"/>
-      <c r="CO8" s="62"/>
-      <c r="CP8" s="62"/>
-      <c r="CQ8" s="62"/>
-      <c r="CR8" s="62"/>
-      <c r="CS8" s="62"/>
-      <c r="CT8" s="62"/>
-      <c r="CU8" s="62"/>
-      <c r="CV8" s="62"/>
-      <c r="CW8" s="62"/>
-      <c r="CX8" s="62"/>
-      <c r="CY8" s="62"/>
-      <c r="CZ8" s="62"/>
-      <c r="DA8" s="62"/>
-      <c r="DB8" s="63"/>
+    <row r="8" spans="3:106" ht="18.399999999999999" customHeight="1" thickBot="1">
+      <c r="C8" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="70"/>
+      <c r="W8" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="70"/>
+      <c r="AU8" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
+      <c r="BF8" s="69"/>
+      <c r="BG8" s="69"/>
+      <c r="BH8" s="69"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="69"/>
+      <c r="BK8" s="69"/>
+      <c r="BL8" s="70"/>
+      <c r="BP8" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ8" s="69"/>
+      <c r="BR8" s="69"/>
+      <c r="BS8" s="69"/>
+      <c r="BT8" s="69"/>
+      <c r="BU8" s="69"/>
+      <c r="BV8" s="69"/>
+      <c r="BW8" s="69"/>
+      <c r="BX8" s="69"/>
+      <c r="BY8" s="69"/>
+      <c r="BZ8" s="69"/>
+      <c r="CA8" s="69"/>
+      <c r="CB8" s="69"/>
+      <c r="CC8" s="69"/>
+      <c r="CD8" s="69"/>
+      <c r="CE8" s="69"/>
+      <c r="CF8" s="69"/>
+      <c r="CG8" s="70"/>
+      <c r="CK8" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="CL8" s="69"/>
+      <c r="CM8" s="69"/>
+      <c r="CN8" s="69"/>
+      <c r="CO8" s="69"/>
+      <c r="CP8" s="69"/>
+      <c r="CQ8" s="69"/>
+      <c r="CR8" s="69"/>
+      <c r="CS8" s="69"/>
+      <c r="CT8" s="69"/>
+      <c r="CU8" s="69"/>
+      <c r="CV8" s="69"/>
+      <c r="CW8" s="69"/>
+      <c r="CX8" s="69"/>
+      <c r="CY8" s="69"/>
+      <c r="CZ8" s="69"/>
+      <c r="DA8" s="69"/>
+      <c r="DB8" s="70"/>
     </row>
-    <row r="9" spans="3:106" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="3:106" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:106" ht="15" thickTop="1"/>
+    <row r="14" spans="3:106" ht="15.6">
       <c r="AQ14" s="35"/>
       <c r="AR14" s="36"/>
       <c r="AS14" s="32"/>
@@ -8513,7 +8509,7 @@
       <c r="BG14" s="32"/>
       <c r="BH14" s="32"/>
     </row>
-    <row r="15" spans="3:106" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:106" ht="15.6">
       <c r="AQ15" s="35"/>
       <c r="AR15" s="37"/>
       <c r="AS15" s="32"/>
@@ -8533,7 +8529,7 @@
       <c r="BG15" s="32"/>
       <c r="BH15" s="32"/>
     </row>
-    <row r="16" spans="3:106" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:106" ht="15.6">
       <c r="AQ16" s="36"/>
       <c r="AR16" s="36"/>
       <c r="AS16" s="32"/>
@@ -8553,7 +8549,7 @@
       <c r="BG16" s="32"/>
       <c r="BH16" s="32"/>
     </row>
-    <row r="17" spans="43:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="43:60" ht="15.6">
       <c r="AQ17" s="35"/>
       <c r="AR17" s="36"/>
       <c r="AS17" s="32"/>
@@ -8573,13 +8569,13 @@
       <c r="BG17" s="32"/>
       <c r="BH17" s="32"/>
     </row>
-    <row r="18" spans="43:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="43:60" ht="15.6">
       <c r="AQ18" s="35"/>
       <c r="AR18" s="36"/>
       <c r="AS18" s="32"/>
       <c r="AT18" s="32"/>
     </row>
-    <row r="19" spans="43:60" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="43:60" ht="15.6">
       <c r="AQ19" s="38"/>
       <c r="AR19" s="38"/>
       <c r="AS19" s="38"/>
